--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/57.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/57.xlsx
@@ -479,13 +479,13 @@
         <v>-8.517126833283356</v>
       </c>
       <c r="E2" t="n">
-        <v>-17.53832957938106</v>
+        <v>-17.54125809449435</v>
       </c>
       <c r="F2" t="n">
-        <v>3.640809056039558</v>
+        <v>3.634741798517716</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.447678341556989</v>
+        <v>-9.407432037028546</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.658253371738532</v>
       </c>
       <c r="E3" t="n">
-        <v>-18.16829278120365</v>
+        <v>-18.16838567233413</v>
       </c>
       <c r="F3" t="n">
-        <v>3.539875509272099</v>
+        <v>3.528342342073047</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.285974439433778</v>
+        <v>-9.247605513542229</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.734531297380782</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.58634686938668</v>
+        <v>-18.58499750349142</v>
       </c>
       <c r="F4" t="n">
-        <v>3.769389936639421</v>
+        <v>3.760755950512449</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.243655195993762</v>
+        <v>-9.205423162294487</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.732714818133724</v>
       </c>
       <c r="E5" t="n">
-        <v>-19.3855185988732</v>
+        <v>-19.38563104603114</v>
       </c>
       <c r="F5" t="n">
-        <v>4.018083937945651</v>
+        <v>4.007049449447024</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.138169983833205</v>
+        <v>-9.108278595848887</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.653823244962725</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.96397611335285</v>
+        <v>-19.95626126051685</v>
       </c>
       <c r="F6" t="n">
-        <v>4.105616716890896</v>
+        <v>4.087674061689318</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.548027742941635</v>
+        <v>-8.515300730974507</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.496213250535805</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.65396165248055</v>
+        <v>-20.64432541994586</v>
       </c>
       <c r="F7" t="n">
-        <v>4.24925084963399</v>
+        <v>4.230227723914824</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.380593924770398</v>
+        <v>-8.349123387568067</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.262095818208829</v>
       </c>
       <c r="E8" t="n">
-        <v>-21.18806609666354</v>
+        <v>-21.17915343714516</v>
       </c>
       <c r="F8" t="n">
-        <v>4.386680832662969</v>
+        <v>4.376682813620128</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.043340453076873</v>
+        <v>-8.010554773027341</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.954873192913316</v>
       </c>
       <c r="E9" t="n">
-        <v>-21.67718678866405</v>
+        <v>-21.66482737930449</v>
       </c>
       <c r="F9" t="n">
-        <v>4.509986474853431</v>
+        <v>4.501274264616589</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.372688400666597</v>
+        <v>-8.345006843786125</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.580350381510449</v>
       </c>
       <c r="E10" t="n">
-        <v>-22.36008326783473</v>
+        <v>-22.34130948146577</v>
       </c>
       <c r="F10" t="n">
-        <v>4.89840829241609</v>
+        <v>4.889397852760366</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.123305049392133</v>
+        <v>-8.09478258333055</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.148247086218952</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.21528790502296</v>
+        <v>-23.19475896518878</v>
       </c>
       <c r="F11" t="n">
-        <v>5.065935001717798</v>
+        <v>5.057413462748765</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.685030028807542</v>
+        <v>-7.661113007214595</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.670310545831147</v>
       </c>
       <c r="E12" t="n">
-        <v>-23.98880212647191</v>
+        <v>-23.96886475646863</v>
       </c>
       <c r="F12" t="n">
-        <v>5.394525153243151</v>
+        <v>5.389704592472373</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.123522701135494</v>
+        <v>-7.099498121391473</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.158028701958507</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.54246748712943</v>
+        <v>-24.52438793973557</v>
       </c>
       <c r="F13" t="n">
-        <v>6.172092361384772</v>
+        <v>6.165501980128171</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.857238053122104</v>
+        <v>-6.836283769690507</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.631161196371924</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.71734961632462</v>
+        <v>-25.70195413370071</v>
       </c>
       <c r="F14" t="n">
-        <v>6.310803264212884</v>
+        <v>6.305176017309064</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.347979541836776</v>
+        <v>-6.32928886858456</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.107623599235048</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.09831080940837</v>
+        <v>-26.08205486157588</v>
       </c>
       <c r="F15" t="n">
-        <v>6.553997132793834</v>
+        <v>6.551762856655653</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.85045953603891</v>
+        <v>-5.825427820880305</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.605842397433269</v>
       </c>
       <c r="E16" t="n">
-        <v>-27.12445957169828</v>
+        <v>-27.12090526370603</v>
       </c>
       <c r="F16" t="n">
-        <v>6.805316530787596</v>
+        <v>6.805355642842532</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.605945635603892</v>
+        <v>-5.581549491337987</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.144175857669547</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.97750571235477</v>
+        <v>-27.97583611650971</v>
       </c>
       <c r="F17" t="n">
-        <v>7.13252798237648</v>
+        <v>7.135050709919808</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.16409186199272</v>
+        <v>-5.140238397489042</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.738838975058609</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.53722610801696</v>
+        <v>-28.53461537835003</v>
       </c>
       <c r="F18" t="n">
-        <v>7.518710634794092</v>
+        <v>7.526357041533947</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.009237458490056</v>
+        <v>-4.984948872375223</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.405940740668374</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.47296735532388</v>
+        <v>-29.47187710679256</v>
       </c>
       <c r="F19" t="n">
-        <v>7.632732052944283</v>
+        <v>7.635953908469579</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.886200711677274</v>
+        <v>-4.855673752800257</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.159233322434608</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.9269898670268</v>
+        <v>-29.93130930459372</v>
       </c>
       <c r="F20" t="n">
-        <v>7.825241587335925</v>
+        <v>7.82388733243379</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.710910259470906</v>
+        <v>-4.679552169426513</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.006841260612768</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.76832683623703</v>
+        <v>-30.77574345965414</v>
       </c>
       <c r="F21" t="n">
-        <v>8.134104596153277</v>
+        <v>8.138739374663112</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.627127348792585</v>
+        <v>-4.593334533328468</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.955451623278642</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.94002875740308</v>
+        <v>-30.94642357838501</v>
       </c>
       <c r="F22" t="n">
-        <v>8.166474710619122</v>
+        <v>8.164533774892956</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.845230834132527</v>
+        <v>-4.806666347966302</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.007048275596025</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.4306479300083</v>
+        <v>-31.43745098306361</v>
       </c>
       <c r="F23" t="n">
-        <v>8.20584099391152</v>
+        <v>8.204633409215392</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.657639640649001</v>
+        <v>-4.61523239508538</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-3.158197790244978</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.4484536930176</v>
+        <v>-31.45523230103858</v>
       </c>
       <c r="F24" t="n">
-        <v>8.583174543900016</v>
+        <v>8.581878957080283</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.843676129948848</v>
+        <v>-4.802706252404101</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-3.401526020184426</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.53475688673582</v>
+        <v>-31.541638163901</v>
       </c>
       <c r="F25" t="n">
-        <v>8.532216425326162</v>
+        <v>8.528530114148507</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.666777194483265</v>
+        <v>-4.628124706193435</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.725327595296161</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.48107314683366</v>
+        <v>-31.48160604858215</v>
       </c>
       <c r="F26" t="n">
-        <v>8.167090725484352</v>
+        <v>8.159190090387417</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.696600136371446</v>
+        <v>-4.659737024594907</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.114279777371251</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.58999044181479</v>
+        <v>-31.59394320386669</v>
       </c>
       <c r="F27" t="n">
-        <v>8.373964162050992</v>
+        <v>8.364738606093123</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.470542236859033</v>
+        <v>-4.437756556809501</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.553494965885604</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.30061990337583</v>
+        <v>-31.30378797982559</v>
       </c>
       <c r="F28" t="n">
-        <v>8.355464160066585</v>
+        <v>8.344410115540491</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.695451219757721</v>
+        <v>-4.659072119661007</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.024434355063693</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.0474475717795</v>
+        <v>-31.05190879054556</v>
       </c>
       <c r="F29" t="n">
-        <v>8.197661685423171</v>
+        <v>8.184710706232714</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.598174650126714</v>
+        <v>-4.558270576078955</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.507107186850356</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.33141086862366</v>
+        <v>-31.33366470078931</v>
       </c>
       <c r="F30" t="n">
-        <v>7.81371330914374</v>
+        <v>7.802874380919789</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.840825838945436</v>
+        <v>-4.805404984194638</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.983180378750399</v>
       </c>
       <c r="E31" t="n">
-        <v>-31.06183102998197</v>
+        <v>-31.06119301458584</v>
       </c>
       <c r="F31" t="n">
-        <v>7.85781704009018</v>
+        <v>7.84897282666793</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.777244304641208</v>
+        <v>-4.744028391987388</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.434510611230384</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.84142971141457</v>
+        <v>-30.84476156959438</v>
       </c>
       <c r="F32" t="n">
-        <v>7.743208941115959</v>
+        <v>7.733802491904015</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.96698177213931</v>
+        <v>-4.933760970478623</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-6.845157746687072</v>
       </c>
       <c r="E33" t="n">
-        <v>-30.34931939171495</v>
+        <v>-30.34557441245489</v>
       </c>
       <c r="F33" t="n">
-        <v>7.80361750996356</v>
+        <v>7.789219384740496</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.875127111123712</v>
+        <v>-4.831614950008169</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.202435252206373</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.98546972266541</v>
+        <v>-29.98050982519892</v>
       </c>
       <c r="F34" t="n">
-        <v>7.785014838834949</v>
+        <v>7.776239071508837</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.956304181141967</v>
+        <v>-4.907981237269381</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.494360281773147</v>
       </c>
       <c r="E35" t="n">
-        <v>-29.73905155405572</v>
+        <v>-29.73445833210426</v>
       </c>
       <c r="F35" t="n">
-        <v>7.884858137071086</v>
+        <v>7.873354303913235</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.871597248165799</v>
+        <v>-4.826124595296624</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.718126901574473</v>
       </c>
       <c r="E36" t="n">
-        <v>-29.3860530357473</v>
+        <v>-29.38723128640223</v>
       </c>
       <c r="F36" t="n">
-        <v>7.968235260179454</v>
+        <v>7.959855502409561</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.059623563260481</v>
+        <v>-5.005600037381071</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.873809426827909</v>
       </c>
       <c r="E37" t="n">
-        <v>-29.2941397066493</v>
+        <v>-29.28978604603431</v>
       </c>
       <c r="F37" t="n">
-        <v>8.140064295524047</v>
+        <v>8.124869262181674</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.106734033430074</v>
+        <v>-5.056015476192698</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.964798135087185</v>
       </c>
       <c r="E38" t="n">
-        <v>-28.66321092597049</v>
+        <v>-28.65706299983534</v>
       </c>
       <c r="F38" t="n">
-        <v>7.8890675719835</v>
+        <v>7.87843398204796</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.093294153552924</v>
+        <v>-5.043455617551594</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-8.000482798960748</v>
       </c>
       <c r="E39" t="n">
-        <v>-28.3411793771571</v>
+        <v>-28.33933866607171</v>
       </c>
       <c r="F39" t="n">
-        <v>7.774254134720869</v>
+        <v>7.762505851219673</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.196305528238823</v>
+        <v>-5.147058562068389</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.992544481547757</v>
       </c>
       <c r="E40" t="n">
-        <v>-27.9026110161605</v>
+        <v>-27.89850669489572</v>
       </c>
       <c r="F40" t="n">
-        <v>7.819198774848418</v>
+        <v>7.804531754247674</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.040072424799688</v>
+        <v>-4.988385844202663</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.954260460424625</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.67572687448758</v>
+        <v>-27.67206989735112</v>
       </c>
       <c r="F41" t="n">
-        <v>7.593209321432142</v>
+        <v>7.580820578031379</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.554816401789695</v>
+        <v>-5.503916951298244</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.899386060750582</v>
       </c>
       <c r="E42" t="n">
-        <v>-27.02621253420419</v>
+        <v>-27.0277036812986</v>
       </c>
       <c r="F42" t="n">
-        <v>7.498401700268927</v>
+        <v>7.482888881480206</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.267704584523249</v>
+        <v>-5.221298131342492</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-7.83961062987178</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.67975306258026</v>
+        <v>-26.68108287244807</v>
       </c>
       <c r="F43" t="n">
-        <v>7.512398926928904</v>
+        <v>7.495898528753067</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.386302113100871</v>
+        <v>-5.335348883533884</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-7.786325739719385</v>
       </c>
       <c r="E44" t="n">
-        <v>-26.10620655549844</v>
+        <v>-26.10555142857827</v>
       </c>
       <c r="F44" t="n">
-        <v>7.608502134911852</v>
+        <v>7.590544812689673</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.487494777232277</v>
+        <v>-5.437817578457555</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-7.751367359982118</v>
       </c>
       <c r="E45" t="n">
-        <v>-25.41856773966685</v>
+        <v>-25.41643613267287</v>
       </c>
       <c r="F45" t="n">
-        <v>7.673794821619501</v>
+        <v>7.654820585969004</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.540755618040448</v>
+        <v>-5.492305559989322</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-7.742051487515157</v>
       </c>
       <c r="E46" t="n">
-        <v>-25.09323366671486</v>
+        <v>-25.09324344472859</v>
       </c>
       <c r="F46" t="n">
-        <v>7.500909760791655</v>
+        <v>7.484668479979763</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.431975215251591</v>
+        <v>-5.383085146582442</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.763729935851194</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.87889960566931</v>
+        <v>-24.87913916700579</v>
       </c>
       <c r="F47" t="n">
-        <v>7.59848944884841</v>
+        <v>7.587117618875966</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.328768280291016</v>
+        <v>-5.280029770834741</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.821806560730605</v>
       </c>
       <c r="E48" t="n">
-        <v>-24.44907767795761</v>
+        <v>-24.45337511499363</v>
       </c>
       <c r="F48" t="n">
-        <v>7.578649858982469</v>
+        <v>7.566481120890717</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.282097820739446</v>
+        <v>-5.232405954944123</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.917517809532885</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.6584470434676</v>
+        <v>-23.65946884590278</v>
       </c>
       <c r="F49" t="n">
-        <v>7.853064925415538</v>
+        <v>7.840441509685164</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.389044845953211</v>
+        <v>-5.346979830870274</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.049458889824846</v>
       </c>
       <c r="E50" t="n">
-        <v>-23.59037251185267</v>
+        <v>-23.59632243320971</v>
       </c>
       <c r="F50" t="n">
-        <v>7.590349252414996</v>
+        <v>7.577212490963596</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.406875053996849</v>
+        <v>-5.368652798311309</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.213830198933998</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.92270040006557</v>
+        <v>-22.92627915309215</v>
       </c>
       <c r="F51" t="n">
-        <v>7.660780285339773</v>
+        <v>7.655573493026509</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.227326276809398</v>
+        <v>-5.188175109819143</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.401349459098256</v>
       </c>
       <c r="E52" t="n">
-        <v>-22.40734040821033</v>
+        <v>-22.41153517610214</v>
       </c>
       <c r="F52" t="n">
-        <v>7.50213690151525</v>
+        <v>7.494730056111874</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.416985520197629</v>
+        <v>-5.381941118975583</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.608194696095799</v>
       </c>
       <c r="E53" t="n">
-        <v>-22.05430033334353</v>
+        <v>-22.060822268504</v>
       </c>
       <c r="F53" t="n">
-        <v>7.870328008662615</v>
+        <v>7.867937284304693</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.35522758545476</v>
+        <v>-5.320354299473055</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.826782971738705</v>
       </c>
       <c r="E54" t="n">
-        <v>-21.29516468109018</v>
+        <v>-21.2994914521674</v>
       </c>
       <c r="F54" t="n">
-        <v>7.816108922508528</v>
+        <v>7.814676443496522</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.367479436663249</v>
+        <v>-5.331530569170823</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.046918648491712</v>
       </c>
       <c r="E55" t="n">
-        <v>-21.0198793714348</v>
+        <v>-21.02738888598238</v>
       </c>
       <c r="F55" t="n">
-        <v>7.610017727040596</v>
+        <v>7.611846215608821</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.517728395697279</v>
+        <v>-5.488560580729264</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.263280056713036</v>
       </c>
       <c r="E56" t="n">
-        <v>-20.50710566421216</v>
+        <v>-20.51949440761292</v>
       </c>
       <c r="F56" t="n">
-        <v>7.510961558910032</v>
+        <v>7.505202308820806</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.559944969993089</v>
+        <v>-5.527354850218234</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.46841746135178</v>
       </c>
       <c r="E57" t="n">
-        <v>-20.22027252033713</v>
+        <v>-20.23565333594044</v>
       </c>
       <c r="F57" t="n">
-        <v>7.42599061956305</v>
+        <v>7.422680761914148</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.800596555003244</v>
+        <v>-5.772748771889296</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.655291010744495</v>
       </c>
       <c r="E58" t="n">
-        <v>-19.72831620435381</v>
+        <v>-19.74685042938628</v>
       </c>
       <c r="F58" t="n">
-        <v>7.064404560692887</v>
+        <v>7.060244015849142</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.083665163590752</v>
+        <v>-6.05433601139613</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.818278898393192</v>
       </c>
       <c r="E59" t="n">
-        <v>-19.21964437389251</v>
+        <v>-19.23027796382805</v>
       </c>
       <c r="F59" t="n">
-        <v>7.394055626708361</v>
+        <v>7.384522063317878</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.972958492096331</v>
+        <v>-5.940964831159239</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.950630732973895</v>
       </c>
       <c r="E60" t="n">
-        <v>-18.80673352093348</v>
+        <v>-18.81606174603555</v>
       </c>
       <c r="F60" t="n">
-        <v>7.246784072856283</v>
+        <v>7.23773941015249</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.231943852857416</v>
+        <v>-6.199500403288568</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-10.05052026015299</v>
       </c>
       <c r="E61" t="n">
-        <v>-18.51369133833746</v>
+        <v>-18.52358179922923</v>
       </c>
       <c r="F61" t="n">
-        <v>6.960576721860215</v>
+        <v>6.94945912024485</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.324854539356267</v>
+        <v>-6.287306966618361</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-10.11868800388022</v>
       </c>
       <c r="E62" t="n">
-        <v>-18.16234774885348</v>
+        <v>-18.16802388582597</v>
       </c>
       <c r="F62" t="n">
-        <v>7.094139500457464</v>
+        <v>7.082166322640389</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.322082472462727</v>
+        <v>-6.288729667616633</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.15533226466598</v>
       </c>
       <c r="E63" t="n">
-        <v>-17.59862081206386</v>
+        <v>-17.60118265166212</v>
       </c>
       <c r="F63" t="n">
-        <v>6.93213736891537</v>
+        <v>6.919680179418471</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.209224637946862</v>
+        <v>-6.173774449154863</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-10.16431995508457</v>
       </c>
       <c r="E64" t="n">
-        <v>-17.60039552155655</v>
+        <v>-17.61010997820111</v>
       </c>
       <c r="F64" t="n">
-        <v>6.733668135152958</v>
+        <v>6.724731030600237</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.390484567537734</v>
+        <v>-6.34616572028915</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-10.15152790927412</v>
       </c>
       <c r="E65" t="n">
-        <v>-17.36977128963044</v>
+        <v>-17.37728080417802</v>
       </c>
       <c r="F65" t="n">
-        <v>6.918521484791012</v>
+        <v>6.906504305912135</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.35390012915261</v>
+        <v>-6.308520367413905</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-10.12189406806536</v>
       </c>
       <c r="E66" t="n">
-        <v>-17.31281924863774</v>
+        <v>-17.32236747904883</v>
       </c>
       <c r="F66" t="n">
-        <v>6.843005884724644</v>
+        <v>6.829365555565951</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.390132559043316</v>
+        <v>-6.349563580061656</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.08018118085885</v>
       </c>
       <c r="E67" t="n">
-        <v>-17.18304545036235</v>
+        <v>-17.19140565210478</v>
       </c>
       <c r="F67" t="n">
-        <v>6.684328277852052</v>
+        <v>6.670775950816964</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.452086054060862</v>
+        <v>-6.407850319929016</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.02943735412647</v>
       </c>
       <c r="E68" t="n">
-        <v>-16.83777400740708</v>
+        <v>-16.84586531377183</v>
       </c>
       <c r="F68" t="n">
-        <v>6.580632442204786</v>
+        <v>6.566972557018626</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.675513667878875</v>
+        <v>-6.62926366291786</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.970429002263748</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.60226076861406</v>
+        <v>-16.61018095973846</v>
       </c>
       <c r="F69" t="n">
-        <v>6.69983131862704</v>
+        <v>6.684294054803984</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.353465007541454</v>
+        <v>-6.307078110388165</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.907605221556564</v>
       </c>
       <c r="E70" t="n">
-        <v>-16.41328598618719</v>
+        <v>-16.42878902696218</v>
       </c>
       <c r="F70" t="n">
-        <v>6.659365008789584</v>
+        <v>6.646135356207712</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.262148137281216</v>
+        <v>-6.212725166863573</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.842109970688167</v>
       </c>
       <c r="E71" t="n">
-        <v>-16.51172125044566</v>
+        <v>-16.52100547448593</v>
       </c>
       <c r="F71" t="n">
-        <v>6.523626622136558</v>
+        <v>6.508949823522079</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.007039758965595</v>
+        <v>-5.951637533149714</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.772572556701979</v>
       </c>
       <c r="E72" t="n">
-        <v>-16.47755198145279</v>
+        <v>-16.48774556077031</v>
       </c>
       <c r="F72" t="n">
-        <v>6.458509939676118</v>
+        <v>6.441491306772387</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.948014779061331</v>
+        <v>-5.893888584037716</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.703020796715514</v>
       </c>
       <c r="E73" t="n">
-        <v>-16.42804589791841</v>
+        <v>-16.43955462008313</v>
       </c>
       <c r="F73" t="n">
-        <v>6.495280160322185</v>
+        <v>6.48042246845363</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.111874733212852</v>
+        <v>-6.053729774544633</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.633061607773914</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.52423710802496</v>
+        <v>-16.54235087846688</v>
       </c>
       <c r="F74" t="n">
-        <v>6.369603349801269</v>
+        <v>6.360128454493188</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.772484765518483</v>
+        <v>-5.715557169560125</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.561201787978703</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.83116407012302</v>
+        <v>-16.84773291439499</v>
       </c>
       <c r="F75" t="n">
-        <v>6.160231630725637</v>
+        <v>6.146136623928321</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.802962834326831</v>
+        <v>-5.747790391833695</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.485606160374498</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.90456761922288</v>
+        <v>-16.91750393139273</v>
       </c>
       <c r="F76" t="n">
-        <v>6.048253817445817</v>
+        <v>6.034100142566098</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.652562316079926</v>
+        <v>-5.593058213502704</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.401646020222936</v>
       </c>
       <c r="E77" t="n">
-        <v>-17.05041158306982</v>
+        <v>-17.0638319069195</v>
       </c>
       <c r="F77" t="n">
-        <v>6.031582304029636</v>
+        <v>6.016059707227182</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.489103260491492</v>
+        <v>-5.426308856292836</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.309485551003188</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.49501786754706</v>
+        <v>-17.50642392056757</v>
       </c>
       <c r="F78" t="n">
-        <v>5.981284201382816</v>
+        <v>5.960725927507438</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.093831944308286</v>
+        <v>-5.029888623495904</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.209104559060238</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.5909157372416</v>
+        <v>-17.60634544291358</v>
       </c>
       <c r="F79" t="n">
-        <v>6.050708098893008</v>
+        <v>6.033640575920608</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.887193180071258</v>
+        <v>-4.825132126902639</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-9.098916806601931</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.03780029891883</v>
+        <v>-18.04728497224064</v>
       </c>
       <c r="F80" t="n">
-        <v>5.731661288771872</v>
+        <v>5.711225240068168</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.400683217737685</v>
+        <v>-4.344107630273745</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.98242835222748</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.88678611937234</v>
+        <v>-18.89116178051823</v>
       </c>
       <c r="F81" t="n">
-        <v>5.83353352485778</v>
+        <v>5.816387777775509</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.281631011521439</v>
+        <v>-4.222566919562239</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.863095387883719</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.61529214360447</v>
+        <v>-19.62596484559495</v>
       </c>
       <c r="F82" t="n">
-        <v>5.573017904947349</v>
+        <v>5.557764203522574</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.201612636130642</v>
+        <v>-4.139981815566312</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.743839496929004</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.38376090996676</v>
+        <v>-20.38943215793238</v>
       </c>
       <c r="F83" t="n">
-        <v>5.263529103251032</v>
+        <v>5.244149080030581</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.115228773799122</v>
+        <v>-4.053984184777278</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.627511413818787</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.48322521923293</v>
+        <v>-21.49838602952724</v>
       </c>
       <c r="F84" t="n">
-        <v>5.148383213521451</v>
+        <v>5.128612069751648</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.785269700351032</v>
+        <v>-3.724479788967811</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.515727338214113</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.53845379436725</v>
+        <v>-22.55100387499462</v>
       </c>
       <c r="F85" t="n">
-        <v>5.26893634484584</v>
+        <v>5.24590912250267</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.832683288946373</v>
+        <v>-3.775687246891879</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.409829184799122</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.34981381797299</v>
+        <v>-23.36785425331191</v>
       </c>
       <c r="F86" t="n">
-        <v>4.895015321650451</v>
+        <v>4.876437095556175</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.762086029788121</v>
+        <v>-3.709206531515569</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.313301595799672</v>
       </c>
       <c r="E87" t="n">
-        <v>-24.06289502554</v>
+        <v>-24.08118480022913</v>
       </c>
       <c r="F87" t="n">
-        <v>4.651855676117569</v>
+        <v>4.627894653462819</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.773873425344253</v>
+        <v>-3.714315543691495</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.226643766945282</v>
       </c>
       <c r="E88" t="n">
-        <v>-25.39306667984902</v>
+        <v>-25.40954752199739</v>
       </c>
       <c r="F88" t="n">
-        <v>4.700100395880286</v>
+        <v>4.679859907451258</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.738946360287013</v>
+        <v>-3.678430233288339</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.149442265997273</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.81405163671098</v>
+        <v>-26.83521859194129</v>
       </c>
       <c r="F89" t="n">
-        <v>4.177553563930682</v>
+        <v>4.155445474878493</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.733524451671604</v>
+        <v>-3.673746564709835</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-8.084369962595192</v>
       </c>
       <c r="E90" t="n">
-        <v>-28.17305132001076</v>
+        <v>-28.19523518866939</v>
       </c>
       <c r="F90" t="n">
-        <v>4.361771342676038</v>
+        <v>4.337820098035022</v>
       </c>
       <c r="G90" t="n">
-        <v>-3.732575984339423</v>
+        <v>-3.66984024822317</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-8.03080202327474</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.99283745601385</v>
+        <v>-30.02100546907758</v>
       </c>
       <c r="F91" t="n">
-        <v>3.869477685218904</v>
+        <v>3.847232703974441</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.083513786253445</v>
+        <v>-4.024439916280511</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.987757227598149</v>
       </c>
       <c r="E92" t="n">
-        <v>-31.70740971973749</v>
+        <v>-31.73228743117978</v>
       </c>
       <c r="F92" t="n">
-        <v>3.552176250549257</v>
+        <v>3.53109485293912</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.131245160295135</v>
+        <v>-4.074283341288709</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.954424361402994</v>
       </c>
       <c r="E93" t="n">
-        <v>-33.38177723549105</v>
+        <v>-33.39983967136087</v>
       </c>
       <c r="F93" t="n">
-        <v>3.254401509306068</v>
+        <v>3.233021882277049</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.53304818965254</v>
+        <v>-4.47718639719117</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-7.92694477288725</v>
       </c>
       <c r="E94" t="n">
-        <v>-35.28455426306001</v>
+        <v>-35.3054058773474</v>
       </c>
       <c r="F94" t="n">
-        <v>2.79831094769844</v>
+        <v>2.779581162391288</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.56494895945916</v>
+        <v>-4.506901780928279</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-7.908052925934737</v>
       </c>
       <c r="E95" t="n">
-        <v>-37.49700831908967</v>
+        <v>-37.51941708206417</v>
       </c>
       <c r="F95" t="n">
-        <v>2.195501290014693</v>
+        <v>2.179836912013098</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.782206646611127</v>
+        <v>-4.721323844097435</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-7.89948417656463</v>
       </c>
       <c r="E96" t="n">
-        <v>-39.43299148129872</v>
+        <v>-39.45521935101915</v>
       </c>
       <c r="F96" t="n">
-        <v>2.012720879288211</v>
+        <v>1.995110676553584</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.078685801034583</v>
+        <v>-5.022168881653046</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-7.900444399149263</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.56560072168136</v>
+        <v>-41.58403472207306</v>
       </c>
       <c r="F97" t="n">
-        <v>1.383403026372052</v>
+        <v>1.371620519822787</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.516007465280125</v>
+        <v>-5.46056612740931</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-7.917608931725018</v>
       </c>
       <c r="E98" t="n">
-        <v>-43.51319038619246</v>
+        <v>-43.52655937547004</v>
       </c>
       <c r="F98" t="n">
-        <v>1.014987024908809</v>
+        <v>0.9995670972505595</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.805094441320806</v>
+        <v>-5.744382754047456</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.952161442237759</v>
       </c>
       <c r="E99" t="n">
-        <v>-46.03500124073302</v>
+        <v>-46.04492103566599</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8419455158612216</v>
+        <v>0.8272198271780737</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.147080471661506</v>
+        <v>-6.084598963902334</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.010390661227461</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.59651327553637</v>
+        <v>-48.60635484635947</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.04297450506411789</v>
+        <v>-0.05685439555928942</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.447627279798236</v>
+        <v>-6.392410836243299</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.088308819464848</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.51724884757923</v>
+        <v>-50.52577772005857</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.1822134206338556</v>
+        <v>-0.1975160121272994</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.913764750517375</v>
+        <v>-6.859667889534961</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.194354318868138</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.84165993860952</v>
+        <v>-52.84506635414405</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.6111748831369731</v>
+        <v>-0.6233045091737891</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.224221575573341</v>
+        <v>-7.171014513840706</v>
       </c>
     </row>
   </sheetData>
